--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Psap-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Psap-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>108.595075</v>
+        <v>114.056483</v>
       </c>
       <c r="H2">
-        <v>325.785225</v>
+        <v>342.169449</v>
       </c>
       <c r="I2">
-        <v>0.04639022893696804</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="J2">
-        <v>0.04639022893696804</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>883.01196607255</v>
+        <v>432.8662898485637</v>
       </c>
       <c r="R2">
-        <v>7947.10769465295</v>
+        <v>3895.796608637073</v>
       </c>
       <c r="S2">
-        <v>0.0009700176333839067</v>
+        <v>0.0005854912001253564</v>
       </c>
       <c r="T2">
-        <v>0.0009700176333839069</v>
+        <v>0.0005854912001253564</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>108.595075</v>
+        <v>114.056483</v>
       </c>
       <c r="H3">
-        <v>325.785225</v>
+        <v>342.169449</v>
       </c>
       <c r="I3">
-        <v>0.04639022893696804</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="J3">
-        <v>0.04639022893696804</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>26429.47826643657</v>
+        <v>27758.65607712589</v>
       </c>
       <c r="R3">
-        <v>237865.3043979291</v>
+        <v>249827.904694133</v>
       </c>
       <c r="S3">
-        <v>0.02903364953660641</v>
+        <v>0.03754611814689775</v>
       </c>
       <c r="T3">
-        <v>0.02903364953660641</v>
+        <v>0.03754611814689775</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>108.595075</v>
+        <v>114.056483</v>
       </c>
       <c r="H4">
-        <v>325.785225</v>
+        <v>342.169449</v>
       </c>
       <c r="I4">
-        <v>0.04639022893696804</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="J4">
-        <v>0.04639022893696804</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>3629.111590259533</v>
+        <v>3399.039564838193</v>
       </c>
       <c r="R4">
-        <v>32662.0043123358</v>
+        <v>30591.35608354373</v>
       </c>
       <c r="S4">
-        <v>0.003986698223045852</v>
+        <v>0.004597511519751083</v>
       </c>
       <c r="T4">
-        <v>0.003986698223045853</v>
+        <v>0.004597511519751082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>108.595075</v>
+        <v>114.056483</v>
       </c>
       <c r="H5">
-        <v>325.785225</v>
+        <v>342.169449</v>
       </c>
       <c r="I5">
-        <v>0.04639022893696804</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="J5">
-        <v>0.04639022893696804</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>11287.65860550621</v>
+        <v>9863.238832680192</v>
       </c>
       <c r="R5">
-        <v>101588.9274495559</v>
+        <v>88769.14949412172</v>
       </c>
       <c r="S5">
-        <v>0.01239986354393187</v>
+        <v>0.01334093154560325</v>
       </c>
       <c r="T5">
-        <v>0.01239986354393188</v>
+        <v>0.01334093154560325</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>755.183854</v>
       </c>
       <c r="I6">
-        <v>0.1075345018380187</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="J6">
-        <v>0.1075345018380187</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>2046.858876631945</v>
+        <v>955.3559909859732</v>
       </c>
       <c r="R6">
-        <v>18421.72988968751</v>
+        <v>8598.20391887376</v>
       </c>
       <c r="S6">
-        <v>0.00224854167289759</v>
+        <v>0.00129220625127684</v>
       </c>
       <c r="T6">
-        <v>0.00224854167289759</v>
+        <v>0.00129220625127684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>755.183854</v>
       </c>
       <c r="I7">
-        <v>0.1075345018380187</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="J7">
-        <v>0.1075345018380187</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
         <v>61264.6422392446</v>
       </c>
       <c r="R7">
-        <v>551381.7801532013</v>
+        <v>551381.7801532014</v>
       </c>
       <c r="S7">
-        <v>0.06730122077432989</v>
+        <v>0.08286602526256977</v>
       </c>
       <c r="T7">
-        <v>0.0673012207743299</v>
+        <v>0.08286602526256977</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>755.183854</v>
       </c>
       <c r="I8">
-        <v>0.1075345018380187</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="J8">
-        <v>0.1075345018380187</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>8412.433305802198</v>
+        <v>7501.838068754611</v>
       </c>
       <c r="R8">
-        <v>75711.89975221979</v>
+        <v>67516.5426187915</v>
       </c>
       <c r="S8">
-        <v>0.009241334160610622</v>
+        <v>0.01014692129423577</v>
       </c>
       <c r="T8">
-        <v>0.009241334160610624</v>
+        <v>0.01014692129423577</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>755.183854</v>
       </c>
       <c r="I9">
-        <v>0.1075345018380187</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="J9">
-        <v>0.1075345018380187</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>26165.2674038316</v>
+        <v>21768.62585585742</v>
       </c>
       <c r="R9">
-        <v>235487.4066344844</v>
+        <v>195917.6327027168</v>
       </c>
       <c r="S9">
-        <v>0.02874340523018062</v>
+        <v>0.02944405507272171</v>
       </c>
       <c r="T9">
-        <v>0.02874340523018062</v>
+        <v>0.02944405507272171</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>86.13644799999999</v>
+        <v>70.67310566666667</v>
       </c>
       <c r="H10">
-        <v>258.409344</v>
+        <v>212.019317</v>
       </c>
       <c r="I10">
-        <v>0.03679623171250852</v>
+        <v>0.03474282771699605</v>
       </c>
       <c r="J10">
-        <v>0.03679623171250853</v>
+        <v>0.03474282771699606</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>700.3956146168318</v>
+        <v>268.21802879899</v>
       </c>
       <c r="R10">
-        <v>6303.560531551487</v>
+        <v>2413.962259190909</v>
       </c>
       <c r="S10">
-        <v>0.0007694075761451975</v>
+        <v>0.0003627893861444316</v>
       </c>
       <c r="T10">
-        <v>0.0007694075761451976</v>
+        <v>0.0003627893861444316</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>86.13644799999999</v>
+        <v>70.67310566666667</v>
       </c>
       <c r="H11">
-        <v>258.409344</v>
+        <v>212.019317</v>
       </c>
       <c r="I11">
-        <v>0.03679623171250852</v>
+        <v>0.03474282771699605</v>
       </c>
       <c r="J11">
-        <v>0.03679623171250853</v>
+        <v>0.03474282771699606</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>20963.5785081786</v>
+        <v>17200.16593974213</v>
       </c>
       <c r="R11">
-        <v>188672.2065736074</v>
+        <v>154801.4934576791</v>
       </c>
       <c r="S11">
-        <v>0.02302917921056844</v>
+        <v>0.02326479569924013</v>
       </c>
       <c r="T11">
-        <v>0.02302917921056845</v>
+        <v>0.02326479569924014</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.13644799999999</v>
+        <v>70.67310566666667</v>
       </c>
       <c r="H12">
-        <v>258.409344</v>
+        <v>212.019317</v>
       </c>
       <c r="I12">
-        <v>0.03679623171250852</v>
+        <v>0.03474282771699605</v>
       </c>
       <c r="J12">
-        <v>0.03679623171250853</v>
+        <v>0.03474282771699606</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>2878.572364175701</v>
+        <v>2106.155441694536</v>
       </c>
       <c r="R12">
-        <v>25907.15127758131</v>
+        <v>18955.39897525082</v>
       </c>
       <c r="S12">
-        <v>0.003162206243525144</v>
+        <v>0.002848767635936008</v>
       </c>
       <c r="T12">
-        <v>0.003162206243525145</v>
+        <v>0.002848767635936008</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.13644799999999</v>
+        <v>70.67310566666667</v>
       </c>
       <c r="H13">
-        <v>258.409344</v>
+        <v>212.019317</v>
       </c>
       <c r="I13">
-        <v>0.03679623171250852</v>
+        <v>0.03474282771699605</v>
       </c>
       <c r="J13">
-        <v>0.03679623171250853</v>
+        <v>0.03474282771699606</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>8953.249661781971</v>
+        <v>6111.583505845759</v>
       </c>
       <c r="R13">
-        <v>80579.24695603774</v>
+        <v>55004.25155261183</v>
       </c>
       <c r="S13">
-        <v>0.009835438682269737</v>
+        <v>0.008266474995675479</v>
       </c>
       <c r="T13">
-        <v>0.009835438682269739</v>
+        <v>0.008266474995675481</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1894.44458</v>
+        <v>1597.720744</v>
       </c>
       <c r="H14">
-        <v>5683.33374</v>
+        <v>4793.162232</v>
       </c>
       <c r="I14">
-        <v>0.8092790375125046</v>
+        <v>0.7854379119898224</v>
       </c>
       <c r="J14">
-        <v>0.8092790375125047</v>
+        <v>0.7854379119898224</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>15404.17218001172</v>
+        <v>6063.65751843643</v>
       </c>
       <c r="R14">
-        <v>138637.5496201055</v>
+        <v>54572.91766592787</v>
       </c>
       <c r="S14">
-        <v>0.01692198884773153</v>
+        <v>0.008201650719580204</v>
       </c>
       <c r="T14">
-        <v>0.01692198884773153</v>
+        <v>0.008201650719580204</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1894.44458</v>
+        <v>1597.720744</v>
       </c>
       <c r="H15">
-        <v>5683.33374</v>
+        <v>4793.162232</v>
       </c>
       <c r="I15">
-        <v>0.8092790375125046</v>
+        <v>0.7854379119898224</v>
       </c>
       <c r="J15">
-        <v>0.8092790375125047</v>
+        <v>0.7854379119898224</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>461063.0993539859</v>
+        <v>388847.5207497473</v>
       </c>
       <c r="R15">
-        <v>4149567.894185873</v>
+        <v>3499627.686747726</v>
       </c>
       <c r="S15">
-        <v>0.5064929510131423</v>
+        <v>0.5259517937263887</v>
       </c>
       <c r="T15">
-        <v>0.5064929510131424</v>
+        <v>0.5259517937263887</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1894.44458</v>
+        <v>1597.720744</v>
       </c>
       <c r="H16">
-        <v>5683.33374</v>
+        <v>4793.162232</v>
       </c>
       <c r="I16">
-        <v>0.8092790375125046</v>
+        <v>0.7854379119898224</v>
       </c>
       <c r="J16">
-        <v>0.8092790375125047</v>
+        <v>0.7854379119898224</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>63309.96854491194</v>
+        <v>47614.26864634002</v>
       </c>
       <c r="R16">
-        <v>569789.7169042075</v>
+        <v>428528.4178170601</v>
       </c>
       <c r="S16">
-        <v>0.06954807886770965</v>
+        <v>0.0644026479922695</v>
       </c>
       <c r="T16">
-        <v>0.06954807886770967</v>
+        <v>0.06440264799226948</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1894.44458</v>
+        <v>1597.720744</v>
       </c>
       <c r="H17">
-        <v>5683.33374</v>
+        <v>4793.162232</v>
       </c>
       <c r="I17">
-        <v>0.8092790375125046</v>
+        <v>0.7854379119898224</v>
       </c>
       <c r="J17">
-        <v>0.8092790375125047</v>
+        <v>0.7854379119898224</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>196913.5678214836</v>
+        <v>138165.7655181204</v>
       </c>
       <c r="R17">
-        <v>1772222.110393352</v>
+        <v>1243491.889663084</v>
       </c>
       <c r="S17">
-        <v>0.2163160187839212</v>
+        <v>0.1868818195515839</v>
       </c>
       <c r="T17">
-        <v>0.2163160187839212</v>
+        <v>0.1868818195515839</v>
       </c>
     </row>
   </sheetData>
